--- a/biology/Médecine/Centre_hospitalier_Esquirol/Centre_hospitalier_Esquirol.xlsx
+++ b/biology/Médecine/Centre_hospitalier_Esquirol/Centre_hospitalier_Esquirol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier Esquirol est un établissement public axé sur la santé mentale. Son activité couvre l'ensemble de la Haute-Vienne, et s'étend sur le Limousin pour certaines filières de soins bien précises (addictologie, psychogériatrie, pédopsychiatrie, psycho-réhabilitation…).
@@ -513,16 +525,87 @@
           <t>Présentation du centre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le centre hospitalier Esquirol de Limoges emploie activement plus de 1500 agents et dispose d'une capacité d'accueil de 922 lits.
-Le personnel
-Le centre hospitalier en lui-même est géré par :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre hospitalier Esquirol de Limoges emploie activement plus de 1500 agents et dispose d'une capacité d'accueil de 922 lits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Esquirol</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_Esquirol</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Présentation du centre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le personnel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre hospitalier en lui-même est géré par :
 le directeur qui conduit la politique générale de l'établissement
 un directoire dont le but principal est d'accompagner le Directeur dans la gestion et la conduite de l'Hôpital
-un conseil de surveillance ayant pour mission de se prononcer sur la stratégie de l'établissement et de contrôler sa gestion [1]
-Capacité d'accueil et répartition des lits
-Le centre hospitalier Esquirol a une capacité d'accueil de 922 lits et places.
+un conseil de surveillance ayant pour mission de se prononcer sur la stratégie de l'établissement et de contrôler sa gestion </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Esquirol</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_Esquirol</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Présentation du centre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Capacité d'accueil et répartition des lits</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le centre hospitalier Esquirol a une capacité d'accueil de 922 lits et places.
 La psychiatrie générale – adultes : 510 lits et places
 La psychiatrie de la personne âgée : 115 lits et places
 L’addictologie de niveau 3 : 96 lits et places (dont 20 SSR)
@@ -530,44 +613,46 @@
 La psychiatrie infanto-juvénile : 70 lits et places
 Les traumatisés crâniens : 47 lits et places (dont 15 EVC)
 1 UEROS (unités évaluation-réentraînement et d'orientation sociale et professionnelle) + 1 réseau + 1 centre ressource + 1 équipe mobile
-La maison d’accueil spécialisée (MAS) : 55 places[2]</t>
+La maison d’accueil spécialisée (MAS) : 55 places</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Centre_hospitalier_Esquirol</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_Esquirol</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Organisation du centre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre hospitalier Esquirol de Limoges regroupe 6 pôles :
 Trois pôles sont en lien avec la psychiatrie :
 Enfant/adolescent périnatalité ;
 Adulte ;
 Personne âgée, addictologie.
-Un pôle est centré sur les activités transversales, un autre pour les blessés de l'encéphale Adrien-Dany et le dernier est destiné aux usagers[3].
+Un pôle est centré sur les activités transversales, un autre pour les blessés de l'encéphale Adrien-Dany et le dernier est destiné aux usagers.
 Ce centre est également constitué d'une « fédération universitaire de recherche et d'innovation et d'enseignement » (FURIE) qui s'intéresse à la recherche en santé mentale et en psychiatrie. Leur but est de comprendre comment prendre en charge les personnes et comment soigner ces pathologies.
-Leurs principaux projets de recherche se basent sur des approches biologiques et cliniques[4].
+Leurs principaux projets de recherche se basent sur des approches biologiques et cliniques.
 </t>
         </is>
       </c>
